--- a/EL SALVADOR/LOCALIZA_SLV.xlsx
+++ b/EL SALVADOR/LOCALIZA_SLV.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E232AB0-DBE9-4830-8B2A-1DAD8D3CC32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805DE04F-09D6-4876-95E8-3E53AAC012D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="13515" windowHeight="11385" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AFFD377B-9885-41C9-96A7-AD323DC48EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="277">
   <si>
     <t>NOM_DPTO</t>
   </si>
@@ -853,6 +854,18 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>CIUDAD DELGADO</t>
+  </si>
+  <si>
+    <t>MERCEDES UMAÑA</t>
+  </si>
+  <si>
+    <t>OSCICALA</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -876,15 +889,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -892,14 +911,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,6 +971,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{393D6D33-CDAD-437A-BD54-D73D92EF9CA1}" name="Tabla2" displayName="Tabla2" ref="A1:G264" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G264" xr:uid="{5405F881-E00B-489D-BA3C-0FB5BB60FC40}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G264">
+    <sortCondition ref="D1:D264"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{24B4DABE-EB75-464D-8D60-2955E68AAB9A}" name="País"/>
     <tableColumn id="2" xr3:uid="{C232EAB1-AC56-41C2-B1EC-1D2BEA259AAE}" name="COD_DPTO"/>
@@ -1251,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454E5203-1221-4CEF-8979-BC0E3FCEE1BC}">
   <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,22 +1327,22 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>-89.853200000000001</v>
+        <v>-89.850516999999996</v>
       </c>
       <c r="G2">
-        <v>13.962388000000001</v>
+        <v>13.63714</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,22 +1350,22 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>-89.800151999999997</v>
+        <v>-89.225031000000001</v>
       </c>
       <c r="G3">
-        <v>13.852631000000001</v>
+        <v>14.200329999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,22 +1373,22 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>-89.742380999999995</v>
+        <v>-89.197367</v>
       </c>
       <c r="G4">
-        <v>13.961067</v>
+        <v>13.955029</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1364,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>-89.85821</v>
+        <v>-89.853200000000001</v>
       </c>
       <c r="G5">
-        <v>13.847091000000001</v>
+        <v>13.962388000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1384,22 +1419,22 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1101</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>-89.710341</v>
+        <v>-88.490513000000007</v>
       </c>
       <c r="G6">
-        <v>13.987083</v>
+        <v>13.507989999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,22 +1442,22 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1401</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>-89.857664</v>
+        <v>-87.888739999999999</v>
       </c>
       <c r="G7">
-        <v>13.726392000000001</v>
+        <v>13.732329999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,22 +1465,22 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>501</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>-89.938175999999999</v>
+        <v>-89.252049999999997</v>
       </c>
       <c r="G8">
-        <v>13.748404000000001</v>
+        <v>13.670337999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,19 +1491,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>-90.034263999999993</v>
+        <v>-89.800151999999997</v>
       </c>
       <c r="G9">
-        <v>13.808198000000001</v>
+        <v>13.852631000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,22 +1511,22 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1001</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>-89.792312999999993</v>
+        <v>-88.653989999999993</v>
       </c>
       <c r="G10">
-        <v>14.020670000000001</v>
+        <v>13.661255000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,22 +1534,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>602</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>-89.806254999999993</v>
+        <v>-89.196949000000004</v>
       </c>
       <c r="G11">
-        <v>13.773635000000001</v>
+        <v>13.799424999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,22 +1557,22 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1301</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>-89.951562999999993</v>
+        <v>-88.113326000000001</v>
       </c>
       <c r="G12">
-        <v>13.893211000000001</v>
+        <v>13.950165999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,22 +1580,22 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>-89.774410000000003</v>
+        <v>-88.750325000000004</v>
       </c>
       <c r="G13">
-        <v>13.962699000000001</v>
+        <v>14.07959</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1568,22 +1603,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>-89.637433999999999</v>
+        <v>-89.503541999999996</v>
       </c>
       <c r="G14">
-        <v>14.114318000000001</v>
+        <v>13.761907000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,22 +1626,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>-89.467168999999998</v>
+        <v>-89.742380999999995</v>
       </c>
       <c r="G15">
-        <v>13.926416</v>
+        <v>13.961067</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,22 +1649,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>203</v>
+        <v>603</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>-89.655743999999999</v>
+        <v>-89.19614</v>
       </c>
       <c r="G16">
-        <v>13.933751000000001</v>
+        <v>13.751976000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,22 +1672,22 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>-89.513373999999999</v>
+        <v>-88.987532000000002</v>
       </c>
       <c r="G17">
-        <v>13.848032999999999</v>
+        <v>13.992614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,22 +1695,22 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>1102</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>-89.646394000000001</v>
+        <v>-88.591356000000005</v>
       </c>
       <c r="G18">
-        <v>14.039427999999999</v>
+        <v>13.540543</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,22 +1718,22 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>206</v>
+        <v>1402</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>-89.415676000000005</v>
+        <v>-87.949792000000002</v>
       </c>
       <c r="G19">
-        <v>14.166651</v>
+        <v>13.55925</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,22 +1741,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>207</v>
+        <v>1302</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>-89.425162</v>
+        <v>-88.054334999999995</v>
       </c>
       <c r="G20">
-        <v>14.314647000000001</v>
+        <v>13.806561</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,22 +1764,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>208</v>
+        <v>1103</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>-89.555002000000002</v>
+        <v>-88.458568</v>
       </c>
       <c r="G21">
-        <v>14.18805</v>
+        <v>13.445586</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,22 +1787,22 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>-89.637238999999994</v>
+        <v>-89.637906000000001</v>
       </c>
       <c r="G22">
-        <v>13.972355</v>
+        <v>13.704211000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,22 +1810,22 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>-89.548679000000007</v>
+        <v>-88.837242000000003</v>
       </c>
       <c r="G23">
-        <v>13.97744</v>
+        <v>13.977231</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,22 +1833,22 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>211</v>
+        <v>701</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>-89.341721000000007</v>
+        <v>-88.983258000000006</v>
       </c>
       <c r="G24">
-        <v>14.189595000000001</v>
+        <v>13.682031</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,19 +1859,19 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25">
-        <v>-89.622512999999998</v>
+        <v>-89.637433999999999</v>
       </c>
       <c r="G25">
-        <v>14.173164999999999</v>
+        <v>14.114318000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,22 +1879,22 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>213</v>
+        <v>1201</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>-89.493753999999996</v>
+        <v>-88.309945999999997</v>
       </c>
       <c r="G26">
-        <v>14.117232</v>
+        <v>13.85852</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,22 +1902,22 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>-89.850516999999996</v>
+        <v>-88.996733000000006</v>
       </c>
       <c r="G27">
-        <v>13.63714</v>
+        <v>14.046775</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,22 +1925,22 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>-89.503541999999996</v>
+        <v>-89.655743999999999</v>
       </c>
       <c r="G28">
-        <v>13.761907000000001</v>
+        <v>13.933751000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,22 +1948,22 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>303</v>
+        <v>1204</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>-89.637906000000001</v>
+        <v>-88.273900999999995</v>
       </c>
       <c r="G29">
-        <v>13.704211000000001</v>
+        <v>13.633615000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,22 +1971,22 @@
         <v>19</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>304</v>
+        <v>1304</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>-89.635454999999993</v>
+        <v>-88.158133000000007</v>
       </c>
       <c r="G30">
-        <v>13.62411</v>
+        <v>13.733219999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1959,22 +1994,22 @@
         <v>19</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>-89.594312000000002</v>
+        <v>-89.463980000000006</v>
       </c>
       <c r="G31">
-        <v>13.591691000000001</v>
+        <v>13.563901</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1982,22 +2017,22 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>306</v>
+        <v>1205</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>-89.628241000000003</v>
+        <v>-88.339223000000004</v>
       </c>
       <c r="G32">
-        <v>13.770898000000001</v>
+        <v>13.479277</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,22 +2040,22 @@
         <v>19</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>307</v>
+        <v>1206</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>-89.718169000000003</v>
+        <v>-88.129050000000007</v>
       </c>
       <c r="G33">
-        <v>13.865441000000001</v>
+        <v>13.262335</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,22 +2063,22 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>308</v>
+        <v>901</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>-89.707802999999998</v>
+        <v>-88.965069</v>
       </c>
       <c r="G34">
-        <v>13.799927</v>
+        <v>13.885799</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,22 +2086,22 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>-89.721718999999993</v>
+        <v>-89.262702000000004</v>
       </c>
       <c r="G35">
-        <v>13.667832000000001</v>
+        <v>14.374373</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,22 +2109,22 @@
         <v>19</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>-89.758402000000004</v>
+        <v>-89.423992999999996</v>
       </c>
       <c r="G36">
-        <v>13.82826</v>
+        <v>13.814253000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2097,22 +2132,22 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>311</v>
+        <v>1202</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>-89.755437000000001</v>
+        <v>-88.290623999999994</v>
       </c>
       <c r="G37">
-        <v>13.714938</v>
+        <v>13.757982</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,22 +2155,22 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>-89.562236999999996</v>
+        <v>-89.467168999999998</v>
       </c>
       <c r="G38">
-        <v>13.704753999999999</v>
+        <v>13.926416</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2143,22 +2178,22 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>313</v>
+        <v>702</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <v>-89.773240999999999</v>
+        <v>-88.942417000000006</v>
       </c>
       <c r="G39">
-        <v>13.784274999999999</v>
+        <v>13.718187</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,22 +2201,22 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>314</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>-89.797787</v>
+        <v>-89.359532000000002</v>
       </c>
       <c r="G40">
-        <v>13.715138</v>
+        <v>13.723934</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,22 +2224,22 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>315</v>
+        <v>1203</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>-89.761364</v>
+        <v>-88.058049999999994</v>
       </c>
       <c r="G41">
-        <v>13.607746000000001</v>
+        <v>13.535539999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2212,22 +2247,22 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>-89.715070999999995</v>
+        <v>-88.967517999999998</v>
       </c>
       <c r="G42">
-        <v>13.733936</v>
+        <v>14.155586</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,22 +2270,22 @@
         <v>19</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>-89.225031000000001</v>
+        <v>-89.365226000000007</v>
       </c>
       <c r="G43">
-        <v>14.200329999999999</v>
+        <v>13.607131000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2258,22 +2293,22 @@
         <v>19</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>402</v>
+        <v>1104</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>-88.750325000000004</v>
+        <v>-88.350859999999997</v>
       </c>
       <c r="G44">
-        <v>14.07959</v>
+        <v>13.287991999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,22 +2316,22 @@
         <v>19</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>403</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
       <c r="F45">
-        <v>-88.987532000000002</v>
+        <v>-89.85821</v>
       </c>
       <c r="G45">
-        <v>13.992614</v>
+        <v>13.847091000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2304,22 +2339,22 @@
         <v>19</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>404</v>
+        <v>1403</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>-89.262702000000004</v>
+        <v>-87.745835999999997</v>
       </c>
       <c r="G46">
-        <v>14.374373</v>
+        <v>13.785883</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,19 +2365,19 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47">
-        <v>-88.967517999999998</v>
+        <v>-88.949224000000001</v>
       </c>
       <c r="G47">
-        <v>14.155586</v>
+        <v>14.099023000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,22 +2385,22 @@
         <v>19</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>406</v>
+        <v>1404</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>-88.949224000000001</v>
+        <v>-87.880917999999994</v>
       </c>
       <c r="G48">
-        <v>14.099023000000001</v>
+        <v>13.27913</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,22 +2408,22 @@
         <v>19</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>407</v>
+        <v>1303</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>-88.996733000000006</v>
+        <v>-87.976284000000007</v>
       </c>
       <c r="G49">
-        <v>14.046775</v>
+        <v>13.819467</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2396,22 +2431,22 @@
         <v>19</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F50">
-        <v>-88.995496000000003</v>
+        <v>-89.635454999999993</v>
       </c>
       <c r="G50">
-        <v>14.200869000000001</v>
+        <v>13.62411</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,22 +2454,22 @@
         <v>19</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>409</v>
+        <v>604</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>-88.909699000000003</v>
+        <v>-89.180302999999995</v>
       </c>
       <c r="G51">
-        <v>14.177555999999999</v>
+        <v>13.776092</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2442,22 +2477,22 @@
         <v>19</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>410</v>
+        <v>801</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>-89.086605000000006</v>
+        <v>-89.091189</v>
       </c>
       <c r="G52">
-        <v>14.091552</v>
+        <v>13.53767</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2465,22 +2500,22 @@
         <v>19</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>411</v>
+        <v>619</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>-88.924912000000006</v>
+        <v>-89.160325</v>
       </c>
       <c r="G53">
-        <v>14.144793</v>
+        <v>13.755153999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2488,22 +2523,22 @@
         <v>19</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>412</v>
+        <v>1305</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>-89.170011000000002</v>
+        <v>-88.146944000000005</v>
       </c>
       <c r="G54">
-        <v>14.292484999999999</v>
+        <v>13.785527</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2511,22 +2546,22 @@
         <v>19</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>413</v>
+        <v>909</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>-89.148579999999995</v>
+        <v>-88.555087999999998</v>
       </c>
       <c r="G55">
-        <v>14.224978</v>
+        <v>13.809269</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,19 +2572,19 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
       <c r="F56">
-        <v>-88.883808000000002</v>
+        <v>-88.995496000000003</v>
       </c>
       <c r="G56">
-        <v>14.094718</v>
+        <v>14.200869000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2557,22 +2592,22 @@
         <v>19</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>415</v>
+        <v>703</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57">
-        <v>-88.726536999999993</v>
+        <v>-88.905925999999994</v>
       </c>
       <c r="G57">
-        <v>14.02219</v>
+        <v>13.732532000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2580,22 +2615,22 @@
         <v>19</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>416</v>
+        <v>1405</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>-89.307117000000005</v>
+        <v>-87.992841999999996</v>
       </c>
       <c r="G58">
-        <v>14.110260999999999</v>
+        <v>13.317375999999999</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2606,19 +2641,19 @@
         <v>4</v>
       </c>
       <c r="C59">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59">
-        <v>-88.800203999999994</v>
+        <v>-88.909699000000003</v>
       </c>
       <c r="G59">
-        <v>14.076162</v>
+        <v>14.177555999999999</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2626,22 +2661,22 @@
         <v>19</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>418</v>
+        <v>204</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F60">
-        <v>-88.866651000000005</v>
+        <v>-89.513373999999999</v>
       </c>
       <c r="G60">
-        <v>14.134334000000001</v>
+        <v>13.848032999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,22 +2684,22 @@
         <v>19</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>419</v>
+        <v>1306</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>-88.899195000000006</v>
+        <v>-88.083719000000002</v>
       </c>
       <c r="G61">
-        <v>13.959758000000001</v>
+        <v>13.591760000000001</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2672,22 +2707,22 @@
         <v>19</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>420</v>
+        <v>605</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F62">
-        <v>-88.776737999999995</v>
+        <v>-89.219438999999994</v>
       </c>
       <c r="G62">
-        <v>14.014642</v>
+        <v>14.008475000000001</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,19 +2733,19 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>-88.893593999999993</v>
+        <v>-89.086605000000006</v>
       </c>
       <c r="G63">
-        <v>14.001675000000001</v>
+        <v>14.091552</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2718,22 +2753,22 @@
         <v>19</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>-89.042102999999997</v>
+        <v>-89.646394000000001</v>
       </c>
       <c r="G64">
-        <v>14.302222</v>
+        <v>14.039427999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,22 +2776,22 @@
         <v>19</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
         <v>4</v>
       </c>
-      <c r="C65">
-        <v>423</v>
-      </c>
-      <c r="D65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
       <c r="F65">
-        <v>-89.007048999999995</v>
+        <v>-89.710341</v>
       </c>
       <c r="G65">
-        <v>13.972424999999999</v>
+        <v>13.987083</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,22 +2799,22 @@
         <v>19</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>424</v>
+        <v>704</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66">
-        <v>-89.055942999999999</v>
+        <v>-88.904557999999994</v>
       </c>
       <c r="G66">
-        <v>14.219716999999999</v>
+        <v>13.773213999999999</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,22 +2822,22 @@
         <v>19</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>425</v>
+        <v>802</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>-89.154038999999997</v>
+        <v>-89.004977999999994</v>
       </c>
       <c r="G67">
-        <v>14.343374000000001</v>
+        <v>13.469091000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,22 +2845,22 @@
         <v>19</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C68">
-        <v>426</v>
+        <v>1307</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>-88.832695999999999</v>
+        <v>-88.199566000000004</v>
       </c>
       <c r="G68">
-        <v>14.012031</v>
+        <v>13.866830999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2833,22 +2868,22 @@
         <v>19</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C69">
-        <v>427</v>
+        <v>1406</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>-88.837242000000003</v>
+        <v>-87.797155000000004</v>
       </c>
       <c r="G69">
-        <v>13.977231</v>
+        <v>13.671422</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,22 +2891,22 @@
         <v>19</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>428</v>
+        <v>1207</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>-88.836509000000007</v>
+        <v>-88.271995000000004</v>
       </c>
       <c r="G70">
-        <v>14.053934</v>
+        <v>13.348979</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,22 +2914,22 @@
         <v>19</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>429</v>
+        <v>1105</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F71">
-        <v>-88.966695000000001</v>
+        <v>-88.411833999999999</v>
       </c>
       <c r="G71">
-        <v>13.963430000000001</v>
+        <v>13.608250999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2902,22 +2937,22 @@
         <v>19</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>430</v>
+        <v>1106</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>-88.934590999999998</v>
+        <v>-88.380346000000003</v>
       </c>
       <c r="G72">
-        <v>13.99752</v>
+        <v>13.350289</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,22 +2960,22 @@
         <v>19</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>431</v>
+        <v>1107</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F73">
-        <v>-89.043177999999997</v>
+        <v>-88.516465999999994</v>
       </c>
       <c r="G73">
-        <v>14.123768</v>
+        <v>13.624159000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,22 +2983,22 @@
         <v>19</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>432</v>
+        <v>902</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>-89.019508000000002</v>
+        <v>-88.652651000000006</v>
       </c>
       <c r="G74">
-        <v>14.090287</v>
+        <v>13.865202</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,22 +3006,22 @@
         <v>19</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>433</v>
+        <v>1002</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F75">
-        <v>-89.122792000000004</v>
+        <v>-88.867095000000006</v>
       </c>
       <c r="G75">
-        <v>14.147575</v>
+        <v>13.615411</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2994,22 +3029,22 @@
         <v>19</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>501</v>
+        <v>1308</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>-89.252049999999997</v>
+        <v>-88.203720000000004</v>
       </c>
       <c r="G76">
-        <v>13.670337999999999</v>
+        <v>13.808695999999999</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,22 +3052,22 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>502</v>
+        <v>1309</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>-89.423992999999996</v>
+        <v>-88.224378000000002</v>
       </c>
       <c r="G77">
-        <v>13.814253000000001</v>
+        <v>13.681922999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3040,22 +3075,22 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>503</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78">
-        <v>-89.359532000000002</v>
+        <v>-89.857664</v>
       </c>
       <c r="G78">
-        <v>13.723934</v>
+        <v>13.726392000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3063,22 +3098,22 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>504</v>
+        <v>606</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F79">
-        <v>-89.365226000000007</v>
+        <v>-89.166498000000004</v>
       </c>
       <c r="G79">
-        <v>13.607131000000001</v>
+        <v>13.897197</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,19 +3124,19 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-89.463980000000006</v>
+        <v>-89.242549999999994</v>
       </c>
       <c r="G80">
-        <v>13.563901</v>
+        <v>13.575124000000001</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3109,22 +3144,22 @@
         <v>19</v>
       </c>
       <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>903</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
         <v>5</v>
       </c>
-      <c r="C81">
-        <v>506</v>
-      </c>
-      <c r="D81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
       <c r="F81">
-        <v>-89.242549999999994</v>
+        <v>-88.819658000000004</v>
       </c>
       <c r="G81">
-        <v>13.575124000000001</v>
+        <v>13.845948</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,22 +3167,22 @@
         <v>19</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F82">
-        <v>-89.444360000000003</v>
+        <v>-89.095429999999993</v>
       </c>
       <c r="G82">
-        <v>13.679819</v>
+        <v>13.692344</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,22 +3190,22 @@
         <v>19</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>508</v>
+        <v>1407</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F83">
-        <v>-89.516374999999996</v>
+        <v>-88.034446000000003</v>
       </c>
       <c r="G83">
-        <v>13.534036</v>
+        <v>13.204611</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3178,22 +3213,22 @@
         <v>19</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>509</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F84">
-        <v>-89.259011999999998</v>
+        <v>-89.628241000000003</v>
       </c>
       <c r="G84">
-        <v>13.487665</v>
+        <v>13.770898000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,19 +3239,19 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>-89.265745999999993</v>
+        <v>-89.444360000000003</v>
       </c>
       <c r="G85">
-        <v>13.643090000000001</v>
+        <v>13.679819</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,22 +3259,22 @@
         <v>19</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>511</v>
+        <v>803</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>-89.309415000000001</v>
+        <v>-88.912621999999999</v>
       </c>
       <c r="G86">
-        <v>13.647899000000001</v>
+        <v>13.658393999999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,19 +3285,19 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87">
-        <v>-89.274473</v>
+        <v>-89.516374999999996</v>
       </c>
       <c r="G87">
-        <v>13.848269</v>
+        <v>13.534036</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,22 +3305,22 @@
         <v>19</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>513</v>
+        <v>1108</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F88">
-        <v>-89.448562999999993</v>
+        <v>-88.663499999999999</v>
       </c>
       <c r="G88">
-        <v>13.736713999999999</v>
+        <v>13.319293999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,22 +3328,22 @@
         <v>19</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C89">
-        <v>514</v>
+        <v>1310</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F89">
-        <v>-89.270752999999999</v>
+        <v>-88.063986</v>
       </c>
       <c r="G89">
-        <v>13.558661000000001</v>
+        <v>13.893283</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3316,22 +3351,22 @@
         <v>19</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>515</v>
+        <v>1311</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>-89.414230000000003</v>
+        <v>-88.161929999999998</v>
       </c>
       <c r="G90">
-        <v>13.899158999999999</v>
+        <v>13.901446</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3339,22 +3374,22 @@
         <v>19</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>516</v>
+        <v>1312</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>-89.306303999999997</v>
+        <v>-88.013986000000003</v>
       </c>
       <c r="G91">
-        <v>13.899663</v>
+        <v>13.617787</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,22 +3397,22 @@
         <v>19</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>517</v>
+        <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F92">
-        <v>-89.330748999999997</v>
+        <v>-89.718169000000003</v>
       </c>
       <c r="G92">
-        <v>13.999613</v>
+        <v>13.865441000000001</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,22 +3420,22 @@
         <v>19</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C93">
-        <v>518</v>
+        <v>1109</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>-89.412458999999998</v>
+        <v>-88.405134000000004</v>
       </c>
       <c r="G93">
-        <v>13.566088000000001</v>
+        <v>13.503441</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3408,22 +3443,22 @@
         <v>19</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>519</v>
+        <v>1110</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F94">
-        <v>-89.396244999999993</v>
+        <v>-88.250601000000003</v>
       </c>
       <c r="G94">
-        <v>13.675077999999999</v>
+        <v>13.219759</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,22 +3466,22 @@
         <v>19</v>
       </c>
       <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="C95">
-        <v>520</v>
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>-89.543379999999999</v>
+        <v>-89.938175999999999</v>
       </c>
       <c r="G95">
-        <v>13.576691</v>
+        <v>13.748404000000001</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,22 +3489,22 @@
         <v>19</v>
       </c>
       <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>904</v>
+      </c>
+      <c r="D96" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" t="s">
         <v>5</v>
       </c>
-      <c r="C96">
-        <v>521</v>
-      </c>
-      <c r="D96" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
       <c r="F96">
-        <v>-89.489044000000007</v>
+        <v>-88.878798000000003</v>
       </c>
       <c r="G96">
-        <v>13.692014</v>
+        <v>13.918873</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3477,22 +3512,22 @@
         <v>19</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F97">
-        <v>-89.297370000000001</v>
+        <v>-88.924912000000006</v>
       </c>
       <c r="G97">
-        <v>13.575065</v>
+        <v>14.144793</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3500,22 +3535,22 @@
         <v>19</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>-89.197367</v>
+        <v>-89.259011999999998</v>
       </c>
       <c r="G98">
-        <v>13.955029</v>
+        <v>13.487665</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,22 +3558,22 @@
         <v>19</v>
       </c>
       <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>412</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" t="s">
         <v>6</v>
       </c>
-      <c r="C99">
-        <v>602</v>
-      </c>
-      <c r="D99" t="s">
-        <v>115</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
       <c r="F99">
-        <v>-89.196949000000004</v>
+        <v>-89.170011000000002</v>
       </c>
       <c r="G99">
-        <v>13.799424999999999</v>
+        <v>14.292484999999999</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3546,22 +3581,22 @@
         <v>19</v>
       </c>
       <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>413</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" t="s">
         <v>6</v>
       </c>
-      <c r="C100">
-        <v>603</v>
-      </c>
-      <c r="D100" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
       <c r="F100">
-        <v>-89.19614</v>
+        <v>-89.148579999999995</v>
       </c>
       <c r="G100">
-        <v>13.751976000000001</v>
+        <v>14.224978</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,22 +3604,22 @@
         <v>19</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C101">
-        <v>604</v>
+        <v>1408</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>-89.180302999999995</v>
+        <v>-87.952781000000002</v>
       </c>
       <c r="G101">
-        <v>13.776092</v>
+        <v>13.210755000000001</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3592,22 +3627,22 @@
         <v>19</v>
       </c>
       <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>428</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" t="s">
         <v>6</v>
       </c>
-      <c r="C102">
-        <v>605</v>
-      </c>
-      <c r="D102" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
       <c r="F102">
-        <v>-89.219438999999994</v>
+        <v>-88.836509000000007</v>
       </c>
       <c r="G102">
-        <v>14.008475000000001</v>
+        <v>14.053934</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,22 +3650,22 @@
         <v>19</v>
       </c>
       <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>414</v>
+      </c>
+      <c r="D103" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" t="s">
         <v>6</v>
       </c>
-      <c r="C103">
-        <v>606</v>
-      </c>
-      <c r="D103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
       <c r="F103">
-        <v>-89.166498000000004</v>
+        <v>-88.883808000000002</v>
       </c>
       <c r="G103">
-        <v>13.897197</v>
+        <v>14.094718</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3638,22 +3673,22 @@
         <v>19</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>607</v>
+        <v>1409</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>-89.095429999999993</v>
+        <v>-87.908061000000004</v>
       </c>
       <c r="G104">
-        <v>13.692344</v>
+        <v>13.831614999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3661,22 +3696,22 @@
         <v>19</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>608</v>
+        <v>1208</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>-89.218783999999999</v>
+        <v>-88.348808000000005</v>
       </c>
       <c r="G105">
-        <v>13.737888999999999</v>
+        <v>13.588687</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,22 +3719,22 @@
         <v>19</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C106">
-        <v>609</v>
+        <v>1313</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F106">
-        <v>-89.226279000000005</v>
+        <v>-88.077990999999997</v>
       </c>
       <c r="G106">
-        <v>13.840007999999999</v>
+        <v>13.734498</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3707,22 +3742,22 @@
         <v>19</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>610</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F107">
-        <v>-89.158613000000003</v>
+        <v>-89.415676000000005</v>
       </c>
       <c r="G107">
-        <v>13.555818</v>
+        <v>14.166651</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3730,22 +3765,22 @@
         <v>19</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>611</v>
+        <v>1314</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F108">
-        <v>-89.206269000000006</v>
+        <v>-88.130511999999996</v>
       </c>
       <c r="G108">
-        <v>13.539851000000001</v>
+        <v>13.862627</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3753,22 +3788,22 @@
         <v>19</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>612</v>
+        <v>1410</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>-89.175399999999996</v>
+        <v>-87.711618999999999</v>
       </c>
       <c r="G109">
-        <v>13.658716</v>
+        <v>13.190242</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,19 +3814,19 @@
         <v>6</v>
       </c>
       <c r="C110">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
       </c>
       <c r="F110">
-        <v>-89.061976999999999</v>
+        <v>-89.218783999999999</v>
       </c>
       <c r="G110">
-        <v>13.735239</v>
+        <v>13.737888999999999</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3799,22 +3834,22 @@
         <v>19</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>614</v>
+        <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F111">
-        <v>-89.215541999999999</v>
+        <v>-88.914023</v>
       </c>
       <c r="G111">
-        <v>13.693429</v>
+        <v>13.644577</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3822,22 +3857,22 @@
         <v>19</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C112">
-        <v>615</v>
+        <v>1111</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F112">
-        <v>-89.095039999999997</v>
+        <v>-88.509255999999993</v>
       </c>
       <c r="G112">
-        <v>13.649763</v>
+        <v>13.568761</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,22 +3880,22 @@
         <v>19</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>616</v>
+        <v>207</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F113">
-        <v>-89.143264000000002</v>
+        <v>-89.425162</v>
       </c>
       <c r="G113">
-        <v>13.64073</v>
+        <v>14.314647000000001</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,22 +3903,22 @@
         <v>19</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>1209</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>-89.143426000000005</v>
+        <v>-88.266186000000005</v>
       </c>
       <c r="G114">
-        <v>13.703795</v>
+        <v>13.548005</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3891,22 +3926,22 @@
         <v>19</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F115">
-        <v>-89.118837999999997</v>
+        <v>-88.942791</v>
       </c>
       <c r="G115">
-        <v>13.783023</v>
+        <v>13.774012000000001</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3914,22 +3949,22 @@
         <v>19</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>619</v>
+        <v>308</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F116">
-        <v>-89.160325</v>
+        <v>-89.707802999999998</v>
       </c>
       <c r="G116">
-        <v>13.755153999999999</v>
+        <v>13.799927</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3937,22 +3972,22 @@
         <v>19</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>701</v>
+        <v>309</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F117">
-        <v>-88.983258000000006</v>
+        <v>-89.721718999999993</v>
       </c>
       <c r="G117">
-        <v>13.682031</v>
+        <v>13.667832000000001</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3960,22 +3995,22 @@
         <v>19</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>702</v>
+        <v>609</v>
       </c>
       <c r="D118" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F118">
-        <v>-88.942417000000006</v>
+        <v>-89.226279000000005</v>
       </c>
       <c r="G118">
-        <v>13.718187</v>
+        <v>13.840007999999999</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3983,22 +4018,22 @@
         <v>19</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>703</v>
+        <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>-88.905925999999994</v>
+        <v>-88.726536999999993</v>
       </c>
       <c r="G119">
-        <v>13.732532000000001</v>
+        <v>14.02219</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,22 +4041,22 @@
         <v>19</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>704</v>
+        <v>416</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F120">
-        <v>-88.904557999999994</v>
+        <v>-89.307117000000005</v>
       </c>
       <c r="G120">
-        <v>13.773213999999999</v>
+        <v>14.110260999999999</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4029,22 +4064,22 @@
         <v>19</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>705</v>
+        <v>1411</v>
       </c>
       <c r="D121" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>-88.942791</v>
+        <v>-87.843498999999994</v>
       </c>
       <c r="G121">
-        <v>13.774012000000001</v>
+        <v>13.822255</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4052,22 +4087,22 @@
         <v>19</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>706</v>
+        <v>1112</v>
       </c>
       <c r="D122" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F122">
-        <v>-89.055097000000004</v>
+        <v>-88.453950000000006</v>
       </c>
       <c r="G122">
-        <v>13.824341</v>
+        <v>13.639305999999999</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,22 +4110,22 @@
         <v>19</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>707</v>
+        <v>1210</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F123">
-        <v>-89.062254999999993</v>
+        <v>-88.317250999999999</v>
       </c>
       <c r="G123">
-        <v>13.790770999999999</v>
+        <v>13.537456000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,22 +4133,22 @@
         <v>19</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>708</v>
+        <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F124">
-        <v>-88.896704</v>
+        <v>-88.800203999999994</v>
       </c>
       <c r="G124">
-        <v>13.687989999999999</v>
+        <v>14.076162</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,22 +4156,22 @@
         <v>19</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>709</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>-89.096007999999998</v>
+        <v>-89.265745999999993</v>
       </c>
       <c r="G125">
-        <v>13.854118</v>
+        <v>13.643090000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,22 +4179,22 @@
         <v>19</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>710</v>
+        <v>1211</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>-89.015210999999994</v>
+        <v>-88.476602999999997</v>
       </c>
       <c r="G126">
-        <v>13.769212</v>
+        <v>13.794622</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4167,22 +4202,22 @@
         <v>19</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>711</v>
+        <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>-88.877313999999998</v>
+        <v>-88.866651000000005</v>
       </c>
       <c r="G127">
-        <v>13.741740999999999</v>
+        <v>14.134334000000001</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4190,22 +4225,22 @@
         <v>19</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F128">
-        <v>-88.927884000000006</v>
+        <v>-89.127092000000005</v>
       </c>
       <c r="G128">
-        <v>13.681065</v>
+        <v>13.539132</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,19 +4251,19 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
       </c>
       <c r="F129">
-        <v>-88.956652000000005</v>
+        <v>-89.055097000000004</v>
       </c>
       <c r="G129">
-        <v>13.656829999999999</v>
+        <v>13.824341</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,22 +4271,22 @@
         <v>19</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C130">
-        <v>714</v>
+        <v>1315</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F130">
-        <v>-88.971269000000007</v>
+        <v>-88.166284000000005</v>
       </c>
       <c r="G130">
-        <v>13.741885999999999</v>
+        <v>13.814258000000001</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4259,22 +4294,22 @@
         <v>19</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C131">
-        <v>715</v>
+        <v>1113</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F131">
-        <v>-89.072587999999996</v>
+        <v>-88.513363999999996</v>
       </c>
       <c r="G131">
-        <v>13.95725</v>
+        <v>13.37936</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,22 +4317,22 @@
         <v>19</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>716</v>
+        <v>610</v>
       </c>
       <c r="D132" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>-88.972037</v>
+        <v>-89.158613000000003</v>
       </c>
       <c r="G132">
-        <v>13.825341999999999</v>
+        <v>13.555818</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4308,19 +4343,19 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133">
-        <v>-89.091189</v>
+        <v>-88.962057000000001</v>
       </c>
       <c r="G133">
-        <v>13.53767</v>
+        <v>13.632395000000001</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4328,22 +4363,22 @@
         <v>19</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>802</v>
+        <v>1412</v>
       </c>
       <c r="D134" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F134">
-        <v>-89.004977999999994</v>
+        <v>-87.759748999999999</v>
       </c>
       <c r="G134">
-        <v>13.469091000000001</v>
+        <v>13.476943</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4351,22 +4386,22 @@
         <v>19</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>803</v>
+        <v>1316</v>
       </c>
       <c r="D135" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F135">
-        <v>-88.912621999999999</v>
+        <v>-88.157449</v>
       </c>
       <c r="G135">
-        <v>13.658393999999999</v>
+        <v>13.965342</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,22 +4409,22 @@
         <v>19</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C136">
-        <v>804</v>
+        <v>1413</v>
       </c>
       <c r="D136" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F136">
-        <v>-88.914023</v>
+        <v>-87.797545999999997</v>
       </c>
       <c r="G136">
-        <v>13.644577</v>
+        <v>13.824313999999999</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4397,22 +4432,22 @@
         <v>19</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>805</v>
+        <v>419</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F137">
-        <v>-89.127092000000005</v>
+        <v>-88.899195000000006</v>
       </c>
       <c r="G137">
-        <v>13.539132</v>
+        <v>13.959758000000001</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4420,22 +4455,22 @@
         <v>19</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C138">
-        <v>806</v>
+        <v>1114</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F138">
-        <v>-88.962057000000001</v>
+        <v>-88.596295999999995</v>
       </c>
       <c r="G138">
-        <v>13.632395000000001</v>
+        <v>13.235127</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4443,22 +4478,22 @@
         <v>19</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>807</v>
+        <v>1212</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>-89.021506000000002</v>
+        <v>-88.229388999999998</v>
       </c>
       <c r="G139">
-        <v>13.572317</v>
+        <v>13.518898999999999</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4466,22 +4501,22 @@
         <v>19</v>
       </c>
       <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>512</v>
+      </c>
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" t="s">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>808</v>
-      </c>
-      <c r="D140" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
       <c r="F140">
-        <v>-88.991506000000001</v>
+        <v>-89.274473</v>
       </c>
       <c r="G140">
-        <v>13.648489</v>
+        <v>13.848269</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,22 +4524,22 @@
         <v>19</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>809</v>
+        <v>611</v>
       </c>
       <c r="D141" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F141">
-        <v>-89.072963000000001</v>
+        <v>-89.206269000000006</v>
       </c>
       <c r="G141">
-        <v>13.621688000000001</v>
+        <v>13.539851000000001</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,22 +4547,22 @@
         <v>19</v>
       </c>
       <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>513</v>
+      </c>
+      <c r="D142" t="s">
+        <v>104</v>
+      </c>
+      <c r="E142" t="s">
         <v>8</v>
       </c>
-      <c r="C142">
-        <v>810</v>
-      </c>
-      <c r="D142" t="s">
-        <v>156</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
       <c r="F142">
-        <v>-88.921234999999996</v>
+        <v>-89.448562999999993</v>
       </c>
       <c r="G142">
-        <v>13.436743999999999</v>
+        <v>13.736713999999999</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4535,22 +4570,22 @@
         <v>19</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>811</v>
+        <v>310</v>
       </c>
       <c r="D143" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F143">
-        <v>-89.090385999999995</v>
+        <v>-89.758402000000004</v>
       </c>
       <c r="G143">
-        <v>13.499385999999999</v>
+        <v>13.82826</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4558,22 +4593,22 @@
         <v>19</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C144">
-        <v>812</v>
+        <v>1115</v>
       </c>
       <c r="D144" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F144">
-        <v>-88.994270999999998</v>
+        <v>-88.583121000000006</v>
       </c>
       <c r="G144">
-        <v>13.60033</v>
+        <v>13.454822</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4581,22 +4616,22 @@
         <v>19</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>813</v>
+        <v>1414</v>
       </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F145">
-        <v>-89.092581999999993</v>
+        <v>-87.913860999999997</v>
       </c>
       <c r="G145">
-        <v>13.434913</v>
+        <v>13.443958</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4604,22 +4639,22 @@
         <v>19</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>814</v>
+        <v>1213</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F146">
-        <v>-89.019837999999993</v>
+        <v>-88.271687</v>
       </c>
       <c r="G146">
-        <v>13.632802999999999</v>
+        <v>13.872128</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,22 +4662,22 @@
         <v>19</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>815</v>
+        <v>420</v>
       </c>
       <c r="D147" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F147">
-        <v>-89.028349000000006</v>
+        <v>-88.776737999999995</v>
       </c>
       <c r="G147">
-        <v>13.389711</v>
+        <v>14.014642</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4650,22 +4685,22 @@
         <v>19</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>816</v>
+        <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F148">
-        <v>-88.934841000000006</v>
+        <v>-89.755437000000001</v>
       </c>
       <c r="G148">
-        <v>13.591343999999999</v>
+        <v>13.714938</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,22 +4708,22 @@
         <v>19</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>817</v>
+        <v>421</v>
       </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F149">
-        <v>-88.921728999999999</v>
+        <v>-88.893593999999993</v>
       </c>
       <c r="G149">
-        <v>13.494576</v>
+        <v>14.001675000000001</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,19 +4734,19 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D150" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
       </c>
       <c r="F150">
-        <v>-88.926603</v>
+        <v>-89.021506000000002</v>
       </c>
       <c r="G150">
-        <v>13.625913000000001</v>
+        <v>13.572317</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4719,22 +4754,22 @@
         <v>19</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>819</v>
+        <v>208</v>
       </c>
       <c r="D151" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F151">
-        <v>-88.954757999999998</v>
+        <v>-89.555002000000002</v>
       </c>
       <c r="G151">
-        <v>13.487393000000001</v>
+        <v>14.18805</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4742,22 +4777,22 @@
         <v>19</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152">
-        <v>820</v>
+        <v>707</v>
       </c>
       <c r="D152" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F152">
-        <v>-89.067274999999995</v>
+        <v>-89.062254999999993</v>
       </c>
       <c r="G152">
-        <v>13.549113999999999</v>
+        <v>13.790770999999999</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4765,22 +4800,22 @@
         <v>19</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C153">
-        <v>821</v>
+        <v>1116</v>
       </c>
       <c r="D153" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F153">
-        <v>-88.850763000000001</v>
+        <v>-88.401769000000002</v>
       </c>
       <c r="G153">
-        <v>13.431327</v>
+        <v>13.568496</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4788,22 +4823,22 @@
         <v>19</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C154">
-        <v>822</v>
+        <v>1317</v>
       </c>
       <c r="D154" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F154">
-        <v>-88.913365999999996</v>
+        <v>-88.113983000000005</v>
       </c>
       <c r="G154">
-        <v>13.333252999999999</v>
+        <v>13.628714</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4811,22 +4846,22 @@
         <v>19</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>901</v>
+        <v>1003</v>
       </c>
       <c r="D155" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F155">
-        <v>-88.965069</v>
+        <v>-88.814712999999998</v>
       </c>
       <c r="G155">
-        <v>13.885799</v>
+        <v>13.655756</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,22 +4869,22 @@
         <v>19</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156">
-        <v>902</v>
+        <v>708</v>
       </c>
       <c r="D156" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F156">
-        <v>-88.652651000000006</v>
+        <v>-88.896704</v>
       </c>
       <c r="G156">
-        <v>13.865202</v>
+        <v>13.687989999999999</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4857,22 +4892,22 @@
         <v>19</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C157">
-        <v>903</v>
+        <v>1117</v>
       </c>
       <c r="D157" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F157">
-        <v>-88.819658000000004</v>
+        <v>-88.454494999999994</v>
       </c>
       <c r="G157">
-        <v>13.845948</v>
+        <v>13.293608000000001</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4880,22 +4915,22 @@
         <v>19</v>
       </c>
       <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>808</v>
+      </c>
+      <c r="D158" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="C158">
-        <v>904</v>
-      </c>
-      <c r="D158" t="s">
-        <v>172</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
       <c r="F158">
-        <v>-88.878798000000003</v>
+        <v>-88.991506000000001</v>
       </c>
       <c r="G158">
-        <v>13.918873</v>
+        <v>13.648489</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4903,22 +4938,22 @@
         <v>19</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C159">
-        <v>905</v>
+        <v>1006</v>
       </c>
       <c r="D159" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E159" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F159">
-        <v>-88.707115999999999</v>
+        <v>-88.743388999999993</v>
       </c>
       <c r="G159">
-        <v>13.827450000000001</v>
+        <v>13.742666</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4926,22 +4961,22 @@
         <v>19</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>906</v>
+        <v>422</v>
       </c>
       <c r="D160" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F160">
-        <v>-88.576347999999996</v>
+        <v>-89.042102999999997</v>
       </c>
       <c r="G160">
-        <v>13.875761000000001</v>
+        <v>14.302222</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4949,22 +4984,22 @@
         <v>19</v>
       </c>
       <c r="B161">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C161">
-        <v>907</v>
+        <v>1318</v>
       </c>
       <c r="D161" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="E161" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F161">
-        <v>-88.918094999999994</v>
+        <v>-88.202786000000003</v>
       </c>
       <c r="G161">
-        <v>13.859966999999999</v>
+        <v>13.966297000000001</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4972,22 +5007,22 @@
         <v>19</v>
       </c>
       <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>809</v>
+      </c>
+      <c r="D162" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" t="s">
         <v>9</v>
       </c>
-      <c r="C162">
-        <v>908</v>
-      </c>
-      <c r="D162" t="s">
-        <v>176</v>
-      </c>
-      <c r="E162" t="s">
-        <v>5</v>
-      </c>
       <c r="F162">
-        <v>-88.643268000000006</v>
+        <v>-89.072963000000001</v>
       </c>
       <c r="G162">
-        <v>13.967167999999999</v>
+        <v>13.621688000000001</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4995,22 +5030,22 @@
         <v>19</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C163">
-        <v>909</v>
+        <v>1319</v>
       </c>
       <c r="D163" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E163" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F163">
-        <v>-88.555087999999998</v>
+        <v>-88.089684000000005</v>
       </c>
       <c r="G163">
-        <v>13.809269</v>
+        <v>13.679142000000001</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5018,22 +5053,22 @@
         <v>19</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C164">
-        <v>1001</v>
+        <v>1119</v>
       </c>
       <c r="D164" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="E164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F164">
-        <v>-88.653989999999993</v>
+        <v>-88.570736999999994</v>
       </c>
       <c r="G164">
-        <v>13.661255000000001</v>
+        <v>13.410455000000001</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5041,22 +5076,22 @@
         <v>19</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>1002</v>
+        <v>423</v>
       </c>
       <c r="D165" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F165">
-        <v>-88.867095000000006</v>
+        <v>-89.007048999999995</v>
       </c>
       <c r="G165">
-        <v>13.615411</v>
+        <v>13.972424999999999</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5064,22 +5099,22 @@
         <v>19</v>
       </c>
       <c r="B166">
-        <v>10</v>
-      </c>
-      <c r="C166">
-        <v>1003</v>
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
+        <v>108</v>
       </c>
       <c r="D166" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F166">
-        <v>-88.814712999999998</v>
+        <v>-90.034263999999993</v>
       </c>
       <c r="G166">
-        <v>13.655756</v>
+        <v>13.808198000000001</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5087,22 +5122,22 @@
         <v>19</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>1004</v>
+        <v>424</v>
       </c>
       <c r="D167" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="E167" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F167">
-        <v>-88.664876000000007</v>
+        <v>-89.055942999999999</v>
       </c>
       <c r="G167">
-        <v>13.729635</v>
+        <v>14.219716999999999</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,22 +5145,22 @@
         <v>19</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C168">
-        <v>1005</v>
+        <v>1214</v>
       </c>
       <c r="D168" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F168">
-        <v>-88.854667000000006</v>
+        <v>-88.410641999999996</v>
       </c>
       <c r="G168">
-        <v>13.70532</v>
+        <v>13.815963999999999</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5133,22 +5168,22 @@
         <v>19</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>1006</v>
+        <v>425</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F169">
-        <v>-88.743388999999993</v>
+        <v>-89.154038999999997</v>
       </c>
       <c r="G169">
-        <v>13.742666</v>
+        <v>14.343374000000001</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5179,22 +5214,22 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171">
-        <v>1008</v>
+        <v>905</v>
       </c>
       <c r="D171" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F171">
-        <v>-88.817677000000003</v>
+        <v>-88.707115999999999</v>
       </c>
       <c r="G171">
-        <v>13.693816</v>
+        <v>13.827450000000001</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5202,22 +5237,22 @@
         <v>19</v>
       </c>
       <c r="B172">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C172">
-        <v>1009</v>
+        <v>1320</v>
       </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F172">
-        <v>-88.812614999999994</v>
+        <v>-88.240140999999994</v>
       </c>
       <c r="G172">
-        <v>13.752561</v>
+        <v>13.863162000000001</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,22 +5260,22 @@
         <v>19</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>1010</v>
+        <v>426</v>
       </c>
       <c r="D173" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F173">
-        <v>-88.716740000000001</v>
+        <v>-88.832695999999999</v>
       </c>
       <c r="G173">
-        <v>13.580856000000001</v>
+        <v>14.012031</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5248,22 +5283,22 @@
         <v>19</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C174">
-        <v>1011</v>
+        <v>1215</v>
       </c>
       <c r="D174" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F174">
-        <v>-88.767298999999994</v>
+        <v>-88.332666000000003</v>
       </c>
       <c r="G174">
-        <v>13.427554000000001</v>
+        <v>13.423698</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5271,22 +5306,22 @@
         <v>19</v>
       </c>
       <c r="B175">
+        <v>14</v>
+      </c>
+      <c r="C175">
+        <v>1415</v>
+      </c>
+      <c r="D175" t="s">
+        <v>267</v>
+      </c>
+      <c r="E175" t="s">
         <v>10</v>
       </c>
-      <c r="C175">
-        <v>1012</v>
-      </c>
-      <c r="D175" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" t="s">
-        <v>14</v>
-      </c>
       <c r="F175">
-        <v>-88.839862999999994</v>
+        <v>-87.899052999999995</v>
       </c>
       <c r="G175">
-        <v>13.646882</v>
+        <v>13.551776</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5294,22 +5329,22 @@
         <v>19</v>
       </c>
       <c r="B176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C176">
-        <v>1013</v>
+        <v>709</v>
       </c>
       <c r="D176" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F176">
-        <v>-88.871512999999993</v>
+        <v>-89.096007999999998</v>
       </c>
       <c r="G176">
-        <v>13.660494999999999</v>
+        <v>13.854118</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,22 +5352,22 @@
         <v>19</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>1101</v>
+        <v>514</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F177">
-        <v>-88.490513000000007</v>
+        <v>-89.270752999999999</v>
       </c>
       <c r="G177">
-        <v>13.507989999999999</v>
+        <v>13.558661000000001</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5340,22 +5375,22 @@
         <v>19</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C178">
-        <v>1102</v>
+        <v>810</v>
       </c>
       <c r="D178" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E178" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F178">
-        <v>-88.591356000000005</v>
+        <v>-88.921234999999996</v>
       </c>
       <c r="G178">
-        <v>13.540543</v>
+        <v>13.436743999999999</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5363,22 +5398,22 @@
         <v>19</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>1103</v>
+        <v>515</v>
       </c>
       <c r="D179" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F179">
-        <v>-88.458568</v>
+        <v>-89.414230000000003</v>
       </c>
       <c r="G179">
-        <v>13.445586</v>
+        <v>13.899158999999999</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5386,22 +5421,22 @@
         <v>19</v>
       </c>
       <c r="B180">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C180">
-        <v>1104</v>
+        <v>811</v>
       </c>
       <c r="D180" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F180">
-        <v>-88.350859999999997</v>
+        <v>-89.090385999999995</v>
       </c>
       <c r="G180">
-        <v>13.287991999999999</v>
+        <v>13.499385999999999</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5409,22 +5444,22 @@
         <v>19</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C181">
-        <v>1105</v>
+        <v>812</v>
       </c>
       <c r="D181" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>-88.411833999999999</v>
+        <v>-88.994270999999998</v>
       </c>
       <c r="G181">
-        <v>13.608250999999999</v>
+        <v>13.60033</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5432,22 +5467,22 @@
         <v>19</v>
       </c>
       <c r="B182">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>1106</v>
+        <v>312</v>
       </c>
       <c r="D182" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F182">
-        <v>-88.380346000000003</v>
+        <v>-89.562236999999996</v>
       </c>
       <c r="G182">
-        <v>13.350289</v>
+        <v>13.704753999999999</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5455,22 +5490,22 @@
         <v>19</v>
       </c>
       <c r="B183">
-        <v>11</v>
-      </c>
-      <c r="C183">
-        <v>1107</v>
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>109</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F183">
-        <v>-88.516465999999994</v>
+        <v>-89.792312999999993</v>
       </c>
       <c r="G183">
-        <v>13.624159000000001</v>
+        <v>14.020670000000001</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5478,22 +5513,22 @@
         <v>19</v>
       </c>
       <c r="B184">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C184">
-        <v>1108</v>
+        <v>1008</v>
       </c>
       <c r="D184" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="E184" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F184">
-        <v>-88.663499999999999</v>
+        <v>-88.817677000000003</v>
       </c>
       <c r="G184">
-        <v>13.319293999999999</v>
+        <v>13.693816</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5501,22 +5536,22 @@
         <v>19</v>
       </c>
       <c r="B185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C185">
-        <v>1109</v>
+        <v>1216</v>
       </c>
       <c r="D185" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F185">
-        <v>-88.405134000000004</v>
+        <v>-88.355680000000007</v>
       </c>
       <c r="G185">
-        <v>13.503441</v>
+        <v>13.830549</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,22 +5559,22 @@
         <v>19</v>
       </c>
       <c r="B186">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>1110</v>
+        <v>429</v>
       </c>
       <c r="D186" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F186">
-        <v>-88.250601000000003</v>
+        <v>-88.966695000000001</v>
       </c>
       <c r="G186">
-        <v>13.219759</v>
+        <v>13.963430000000001</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5547,22 +5582,22 @@
         <v>19</v>
       </c>
       <c r="B187">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C187">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="D187" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E187" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F187">
-        <v>-88.509255999999993</v>
+        <v>-88.913365999999996</v>
       </c>
       <c r="G187">
-        <v>13.568761</v>
+        <v>13.333252999999999</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5570,22 +5605,22 @@
         <v>19</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C188">
-        <v>1112</v>
+        <v>813</v>
       </c>
       <c r="D188" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F188">
-        <v>-88.453950000000006</v>
+        <v>-89.092581999999993</v>
       </c>
       <c r="G188">
-        <v>13.639305999999999</v>
+        <v>13.434913</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,22 +5628,22 @@
         <v>19</v>
       </c>
       <c r="B189">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>1113</v>
+        <v>612</v>
       </c>
       <c r="D189" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E189" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F189">
-        <v>-88.513363999999996</v>
+        <v>-89.175399999999996</v>
       </c>
       <c r="G189">
-        <v>13.37936</v>
+        <v>13.658716</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,22 +5651,22 @@
         <v>19</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>1114</v>
+        <v>613</v>
       </c>
       <c r="D190" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="E190" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F190">
-        <v>-88.596295999999995</v>
+        <v>-89.061976999999999</v>
       </c>
       <c r="G190">
-        <v>13.235127</v>
+        <v>13.735239</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5639,22 +5674,22 @@
         <v>19</v>
       </c>
       <c r="B191">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C191">
-        <v>1115</v>
+        <v>516</v>
       </c>
       <c r="D191" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F191">
-        <v>-88.583121000000006</v>
+        <v>-89.306303999999997</v>
       </c>
       <c r="G191">
-        <v>13.454822</v>
+        <v>13.899663</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5662,22 +5697,22 @@
         <v>19</v>
       </c>
       <c r="B192">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C192">
-        <v>1116</v>
+        <v>1217</v>
       </c>
       <c r="D192" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F192">
-        <v>-88.401769000000002</v>
+        <v>-88.157652999999996</v>
       </c>
       <c r="G192">
-        <v>13.568496</v>
+        <v>13.436657</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5685,22 +5720,22 @@
         <v>19</v>
       </c>
       <c r="B193">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>1117</v>
+        <v>430</v>
       </c>
       <c r="D193" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F193">
-        <v>-88.454494999999994</v>
+        <v>-88.934590999999998</v>
       </c>
       <c r="G193">
-        <v>13.293608000000001</v>
+        <v>13.99752</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,22 +5743,22 @@
         <v>19</v>
       </c>
       <c r="B194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C194">
-        <v>1118</v>
+        <v>814</v>
       </c>
       <c r="D194" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F194">
-        <v>-88.415029000000004</v>
+        <v>-89.019837999999993</v>
       </c>
       <c r="G194">
-        <v>13.41311</v>
+        <v>13.632802999999999</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,22 +5766,22 @@
         <v>19</v>
       </c>
       <c r="B195">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C195">
-        <v>1119</v>
+        <v>517</v>
       </c>
       <c r="D195" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F195">
-        <v>-88.570736999999994</v>
+        <v>-89.330748999999997</v>
       </c>
       <c r="G195">
-        <v>13.410455000000001</v>
+        <v>13.999613</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5754,22 +5789,22 @@
         <v>19</v>
       </c>
       <c r="B196">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>1120</v>
+        <v>815</v>
       </c>
       <c r="D196" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E196" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F196">
-        <v>-88.407577000000003</v>
+        <v>-89.028349000000006</v>
       </c>
       <c r="G196">
-        <v>13.341666999999999</v>
+        <v>13.389711</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,22 +5812,22 @@
         <v>19</v>
       </c>
       <c r="B197">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C197">
-        <v>1121</v>
+        <v>816</v>
       </c>
       <c r="D197" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F197">
-        <v>-88.452633000000006</v>
+        <v>-88.934841000000006</v>
       </c>
       <c r="G197">
-        <v>13.488192</v>
+        <v>13.591343999999999</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,22 +5835,22 @@
         <v>19</v>
       </c>
       <c r="B198">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C198">
-        <v>1122</v>
+        <v>710</v>
       </c>
       <c r="D198" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F198">
-        <v>-88.505747999999997</v>
+        <v>-89.015210999999994</v>
       </c>
       <c r="G198">
-        <v>13.433548</v>
+        <v>13.769212</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,22 +5858,22 @@
         <v>19</v>
       </c>
       <c r="B199">
-        <v>11</v>
-      </c>
-      <c r="C199">
-        <v>1123</v>
+        <v>1</v>
+      </c>
+      <c r="C199" s="2">
+        <v>110</v>
       </c>
       <c r="D199" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="E199" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F199">
-        <v>-88.482439999999997</v>
+        <v>-89.806254999999993</v>
       </c>
       <c r="G199">
-        <v>13.262859000000001</v>
+        <v>13.773635000000001</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5846,22 +5881,22 @@
         <v>19</v>
       </c>
       <c r="B200">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>1201</v>
+        <v>431</v>
       </c>
       <c r="D200" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F200">
-        <v>-88.309945999999997</v>
+        <v>-89.043177999999997</v>
       </c>
       <c r="G200">
-        <v>13.85852</v>
+        <v>14.123768</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5869,22 +5904,22 @@
         <v>19</v>
       </c>
       <c r="B201">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C201">
-        <v>1202</v>
+        <v>711</v>
       </c>
       <c r="D201" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F201">
-        <v>-88.290623999999994</v>
+        <v>-88.877313999999998</v>
       </c>
       <c r="G201">
-        <v>13.757982</v>
+        <v>13.741740999999999</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5892,22 +5927,22 @@
         <v>19</v>
       </c>
       <c r="B202">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C202">
-        <v>1203</v>
+        <v>817</v>
       </c>
       <c r="D202" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F202">
-        <v>-88.058049999999994</v>
+        <v>-88.921728999999999</v>
       </c>
       <c r="G202">
-        <v>13.535539999999999</v>
+        <v>13.494576</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,19 +5953,19 @@
         <v>12</v>
       </c>
       <c r="C203">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="D203" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
       </c>
       <c r="F203">
-        <v>-88.273900999999995</v>
+        <v>-88.353688000000005</v>
       </c>
       <c r="G203">
-        <v>13.633615000000001</v>
+        <v>13.386218</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5938,22 +5973,22 @@
         <v>19</v>
       </c>
       <c r="B204">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C204">
-        <v>1205</v>
+        <v>712</v>
       </c>
       <c r="D204" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F204">
-        <v>-88.339223000000004</v>
+        <v>-88.927884000000006</v>
       </c>
       <c r="G204">
-        <v>13.479277</v>
+        <v>13.681065</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5961,22 +5996,22 @@
         <v>19</v>
       </c>
       <c r="B205">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>1206</v>
+        <v>614</v>
       </c>
       <c r="D205" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F205">
-        <v>-88.129050000000007</v>
+        <v>-89.215541999999999</v>
       </c>
       <c r="G205">
-        <v>13.262335</v>
+        <v>13.693429</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5984,22 +6019,22 @@
         <v>19</v>
       </c>
       <c r="B206">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>1207</v>
+        <v>1009</v>
       </c>
       <c r="D206" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F206">
-        <v>-88.271995000000004</v>
+        <v>-88.812614999999994</v>
       </c>
       <c r="G206">
-        <v>13.348979</v>
+        <v>13.752561</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6007,22 +6042,22 @@
         <v>19</v>
       </c>
       <c r="B207">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>1208</v>
+        <v>209</v>
       </c>
       <c r="D207" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F207">
-        <v>-88.348808000000005</v>
+        <v>-89.637238999999994</v>
       </c>
       <c r="G207">
-        <v>13.588687</v>
+        <v>13.972355</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6030,22 +6065,22 @@
         <v>19</v>
       </c>
       <c r="B208">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C208">
-        <v>1209</v>
+        <v>1321</v>
       </c>
       <c r="D208" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F208">
-        <v>-88.266186000000005</v>
+        <v>-88.235798000000003</v>
       </c>
       <c r="G208">
-        <v>13.548005</v>
+        <v>13.809486</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,22 +6088,22 @@
         <v>19</v>
       </c>
       <c r="B209">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C209">
-        <v>1210</v>
+        <v>1010</v>
       </c>
       <c r="D209" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F209">
-        <v>-88.317250999999999</v>
+        <v>-88.716740000000001</v>
       </c>
       <c r="G209">
-        <v>13.537456000000001</v>
+        <v>13.580856000000001</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6076,22 +6111,22 @@
         <v>19</v>
       </c>
       <c r="B210">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>1211</v>
+        <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F210">
-        <v>-88.476602999999997</v>
+        <v>-89.548679000000007</v>
       </c>
       <c r="G210">
-        <v>13.794622</v>
+        <v>13.97744</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6099,22 +6134,22 @@
         <v>19</v>
       </c>
       <c r="B211">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>1212</v>
+        <v>313</v>
       </c>
       <c r="D211" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="E211" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F211">
-        <v>-88.229388999999998</v>
+        <v>-89.773240999999999</v>
       </c>
       <c r="G211">
-        <v>13.518898999999999</v>
+        <v>13.784274999999999</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6122,22 +6157,22 @@
         <v>19</v>
       </c>
       <c r="B212">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C212">
-        <v>1213</v>
+        <v>1004</v>
       </c>
       <c r="D212" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F212">
-        <v>-88.271687</v>
+        <v>-88.664876000000007</v>
       </c>
       <c r="G212">
-        <v>13.872128</v>
+        <v>13.729635</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6145,22 +6180,22 @@
         <v>19</v>
       </c>
       <c r="B213">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>1214</v>
+        <v>713</v>
       </c>
       <c r="D213" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F213">
-        <v>-88.410641999999996</v>
+        <v>-88.956652000000005</v>
       </c>
       <c r="G213">
-        <v>13.815963999999999</v>
+        <v>13.656829999999999</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,22 +6203,22 @@
         <v>19</v>
       </c>
       <c r="B214">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C214">
-        <v>1215</v>
+        <v>714</v>
       </c>
       <c r="D214" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="E214" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F214">
-        <v>-88.332666000000003</v>
+        <v>-88.971269000000007</v>
       </c>
       <c r="G214">
-        <v>13.423698</v>
+        <v>13.741885999999999</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,22 +6226,22 @@
         <v>19</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C215">
-        <v>1216</v>
+        <v>1118</v>
       </c>
       <c r="D215" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F215">
-        <v>-88.355680000000007</v>
+        <v>-88.415029000000004</v>
       </c>
       <c r="G215">
-        <v>13.830549</v>
+        <v>13.41311</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6214,22 +6249,22 @@
         <v>19</v>
       </c>
       <c r="B216">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C216">
-        <v>1217</v>
+        <v>305</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F216">
-        <v>-88.157652999999996</v>
+        <v>-89.594312000000002</v>
       </c>
       <c r="G216">
-        <v>13.436657</v>
+        <v>13.591691000000001</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6237,22 +6272,22 @@
         <v>19</v>
       </c>
       <c r="B217">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C217">
-        <v>1218</v>
+        <v>1120</v>
       </c>
       <c r="D217" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F217">
-        <v>-88.353688000000005</v>
+        <v>-88.407577000000003</v>
       </c>
       <c r="G217">
-        <v>13.386218</v>
+        <v>13.341666999999999</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6260,22 +6295,22 @@
         <v>19</v>
       </c>
       <c r="B218">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C218">
-        <v>1219</v>
+        <v>818</v>
       </c>
       <c r="D218" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F218">
-        <v>-88.390704999999997</v>
+        <v>-88.926603</v>
       </c>
       <c r="G218">
-        <v>13.709942</v>
+        <v>13.625913000000001</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6283,22 +6318,22 @@
         <v>19</v>
       </c>
       <c r="B219">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>1220</v>
+        <v>432</v>
       </c>
       <c r="D219" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F219">
-        <v>-88.059788999999995</v>
+        <v>-89.019508000000002</v>
       </c>
       <c r="G219">
-        <v>13.491766</v>
+        <v>14.090287</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6306,22 +6341,22 @@
         <v>19</v>
       </c>
       <c r="B220">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>1301</v>
+        <v>1416</v>
       </c>
       <c r="D220" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F220">
-        <v>-88.113326000000001</v>
+        <v>-87.90307</v>
       </c>
       <c r="G220">
-        <v>13.950165999999999</v>
+        <v>13.641738</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6329,22 +6364,22 @@
         <v>19</v>
       </c>
       <c r="B221">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>1302</v>
+        <v>211</v>
       </c>
       <c r="D221" t="s">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F221">
-        <v>-88.054334999999995</v>
+        <v>-89.341721000000007</v>
       </c>
       <c r="G221">
-        <v>13.806561</v>
+        <v>14.189595000000001</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -6352,22 +6387,22 @@
         <v>19</v>
       </c>
       <c r="B222">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C222">
-        <v>1303</v>
+        <v>511</v>
       </c>
       <c r="D222" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F222">
-        <v>-87.976284000000007</v>
+        <v>-89.309415000000001</v>
       </c>
       <c r="G222">
-        <v>13.819467</v>
+        <v>13.647899000000001</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -6375,22 +6410,22 @@
         <v>19</v>
       </c>
       <c r="B223">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C223">
-        <v>1304</v>
+        <v>212</v>
       </c>
       <c r="D223" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F223">
-        <v>-88.158133000000007</v>
+        <v>-89.622512999999998</v>
       </c>
       <c r="G223">
-        <v>13.733219999999999</v>
+        <v>14.173164999999999</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,22 +6433,22 @@
         <v>19</v>
       </c>
       <c r="B224">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C224">
-        <v>1305</v>
+        <v>1121</v>
       </c>
       <c r="D224" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F224">
-        <v>-88.146944000000005</v>
+        <v>-88.452633000000006</v>
       </c>
       <c r="G224">
-        <v>13.785527</v>
+        <v>13.488192</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -6421,22 +6456,22 @@
         <v>19</v>
       </c>
       <c r="B225">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C225">
-        <v>1306</v>
+        <v>819</v>
       </c>
       <c r="D225" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F225">
-        <v>-88.083719000000002</v>
+        <v>-88.954757999999998</v>
       </c>
       <c r="G225">
-        <v>13.591760000000001</v>
+        <v>13.487393000000001</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,22 +6479,22 @@
         <v>19</v>
       </c>
       <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>615</v>
+      </c>
+      <c r="D226" t="s">
+        <v>127</v>
+      </c>
+      <c r="E226" t="s">
         <v>13</v>
       </c>
-      <c r="C226">
-        <v>1307</v>
-      </c>
-      <c r="D226" t="s">
-        <v>135</v>
-      </c>
-      <c r="E226" t="s">
-        <v>11</v>
-      </c>
       <c r="F226">
-        <v>-88.199566000000004</v>
+        <v>-89.095039999999997</v>
       </c>
       <c r="G226">
-        <v>13.866830999999999</v>
+        <v>13.649763</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -6467,22 +6502,22 @@
         <v>19</v>
       </c>
       <c r="B227">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C227">
-        <v>1308</v>
+        <v>1005</v>
       </c>
       <c r="D227" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F227">
-        <v>-88.203720000000004</v>
+        <v>-88.854667000000006</v>
       </c>
       <c r="G227">
-        <v>13.808695999999999</v>
+        <v>13.70532</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6490,22 +6525,22 @@
         <v>19</v>
       </c>
       <c r="B228">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C228">
-        <v>1309</v>
+        <v>314</v>
       </c>
       <c r="D228" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>-88.224378000000002</v>
+        <v>-89.797787</v>
       </c>
       <c r="G228">
-        <v>13.681922999999999</v>
+        <v>13.715138</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6513,22 +6548,22 @@
         <v>19</v>
       </c>
       <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>616</v>
+      </c>
+      <c r="D229" t="s">
+        <v>128</v>
+      </c>
+      <c r="E229" t="s">
         <v>13</v>
       </c>
-      <c r="C229">
-        <v>1310</v>
-      </c>
-      <c r="D229" t="s">
-        <v>239</v>
-      </c>
-      <c r="E229" t="s">
-        <v>11</v>
-      </c>
       <c r="F229">
-        <v>-88.063986</v>
+        <v>-89.143264000000002</v>
       </c>
       <c r="G229">
-        <v>13.893283</v>
+        <v>13.64073</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6539,19 +6574,19 @@
         <v>13</v>
       </c>
       <c r="C230">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="D230" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
       </c>
       <c r="F230">
-        <v>-88.161929999999998</v>
+        <v>-88.151544999999999</v>
       </c>
       <c r="G230">
-        <v>13.901446</v>
+        <v>13.680993000000001</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,22 +6594,22 @@
         <v>19</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C231">
-        <v>1312</v>
+        <v>906</v>
       </c>
       <c r="D231" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="E231" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F231">
-        <v>-88.013986000000003</v>
+        <v>-88.576347999999996</v>
       </c>
       <c r="G231">
-        <v>13.617787</v>
+        <v>13.875761000000001</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -6582,22 +6617,22 @@
         <v>19</v>
       </c>
       <c r="B232">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C232">
-        <v>1313</v>
+        <v>1219</v>
       </c>
       <c r="D232" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>-88.077990999999997</v>
+        <v>-88.390704999999997</v>
       </c>
       <c r="G232">
-        <v>13.734498</v>
+        <v>13.709942</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6608,19 +6643,19 @@
         <v>13</v>
       </c>
       <c r="C233">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="D233" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E233" t="s">
         <v>11</v>
       </c>
       <c r="F233">
-        <v>-88.130511999999996</v>
+        <v>-87.995634999999993</v>
       </c>
       <c r="G233">
-        <v>13.862627</v>
+        <v>13.694475000000001</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6628,22 +6663,22 @@
         <v>19</v>
       </c>
       <c r="B234">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>1315</v>
+        <v>315</v>
       </c>
       <c r="D234" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E234" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F234">
-        <v>-88.166284000000005</v>
+        <v>-89.761364</v>
       </c>
       <c r="G234">
-        <v>13.814258000000001</v>
+        <v>13.607746000000001</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,22 +6686,22 @@
         <v>19</v>
       </c>
       <c r="B235">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>1316</v>
+        <v>316</v>
       </c>
       <c r="D235" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="E235" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F235">
-        <v>-88.157449</v>
+        <v>-89.715070999999995</v>
       </c>
       <c r="G235">
-        <v>13.965342</v>
+        <v>13.733936</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,22 +6709,22 @@
         <v>19</v>
       </c>
       <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <v>617</v>
+      </c>
+      <c r="D236" t="s">
+        <v>129</v>
+      </c>
+      <c r="E236" t="s">
         <v>13</v>
       </c>
-      <c r="C236">
-        <v>1317</v>
-      </c>
-      <c r="D236" t="s">
-        <v>246</v>
-      </c>
-      <c r="E236" t="s">
-        <v>11</v>
-      </c>
       <c r="F236">
-        <v>-88.113983000000005</v>
+        <v>-89.143426000000005</v>
       </c>
       <c r="G236">
-        <v>13.628714</v>
+        <v>13.703795</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6697,22 +6732,22 @@
         <v>19</v>
       </c>
       <c r="B237">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C237">
-        <v>1318</v>
+        <v>715</v>
       </c>
       <c r="D237" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F237">
-        <v>-88.202786000000003</v>
+        <v>-89.072587999999996</v>
       </c>
       <c r="G237">
-        <v>13.966297000000001</v>
+        <v>13.95725</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6720,22 +6755,22 @@
         <v>19</v>
       </c>
       <c r="B238">
-        <v>13</v>
-      </c>
-      <c r="C238">
-        <v>1319</v>
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
+        <v>111</v>
       </c>
       <c r="D238" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F238">
-        <v>-88.089684000000005</v>
+        <v>-89.951562999999993</v>
       </c>
       <c r="G238">
-        <v>13.679142000000001</v>
+        <v>13.893211000000001</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6743,22 +6778,22 @@
         <v>19</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C239">
-        <v>1320</v>
+        <v>519</v>
       </c>
       <c r="D239" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="E239" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F239">
-        <v>-88.240140999999994</v>
+        <v>-89.396244999999993</v>
       </c>
       <c r="G239">
-        <v>13.863162000000001</v>
+        <v>13.675077999999999</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6766,22 +6801,22 @@
         <v>19</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C240">
-        <v>1321</v>
+        <v>518</v>
       </c>
       <c r="D240" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="E240" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F240">
-        <v>-88.235798000000003</v>
+        <v>-89.412458999999998</v>
       </c>
       <c r="G240">
-        <v>13.809486</v>
+        <v>13.566088000000001</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6789,22 +6824,22 @@
         <v>19</v>
       </c>
       <c r="B241">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C241">
-        <v>1322</v>
+        <v>820</v>
       </c>
       <c r="D241" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="E241" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F241">
-        <v>-88.151544999999999</v>
+        <v>-89.067274999999995</v>
       </c>
       <c r="G241">
-        <v>13.680993000000001</v>
+        <v>13.549113999999999</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,22 +6847,22 @@
         <v>19</v>
       </c>
       <c r="B242">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C242">
-        <v>1323</v>
+        <v>1122</v>
       </c>
       <c r="D242" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E242" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F242">
-        <v>-87.995634999999993</v>
+        <v>-88.505747999999997</v>
       </c>
       <c r="G242">
-        <v>13.694475000000001</v>
+        <v>13.433548</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6835,22 +6870,22 @@
         <v>19</v>
       </c>
       <c r="B243">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C243">
-        <v>1324</v>
+        <v>1011</v>
       </c>
       <c r="D243" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F243">
-        <v>-88.227382000000006</v>
+        <v>-88.767298999999994</v>
       </c>
       <c r="G243">
-        <v>13.91123</v>
+        <v>13.427554000000001</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6858,22 +6893,22 @@
         <v>19</v>
       </c>
       <c r="B244">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C244">
-        <v>1325</v>
+        <v>907</v>
       </c>
       <c r="D244" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="E244" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F244">
-        <v>-88.176061000000004</v>
+        <v>-88.918094999999994</v>
       </c>
       <c r="G244">
-        <v>13.645421000000001</v>
+        <v>13.859966999999999</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6881,22 +6916,22 @@
         <v>19</v>
       </c>
       <c r="B245">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>1326</v>
+        <v>433</v>
       </c>
       <c r="D245" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="E245" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F245">
-        <v>-88.132830999999996</v>
+        <v>-89.122792000000004</v>
       </c>
       <c r="G245">
-        <v>13.763154999999999</v>
+        <v>14.147575</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6904,22 +6939,22 @@
         <v>19</v>
       </c>
       <c r="B246">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C246">
-        <v>1401</v>
+        <v>716</v>
       </c>
       <c r="D246" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F246">
-        <v>-87.888739999999999</v>
+        <v>-88.972037</v>
       </c>
       <c r="G246">
-        <v>13.732329999999999</v>
+        <v>13.825341999999999</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6927,22 +6962,22 @@
         <v>19</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C247">
-        <v>1402</v>
+        <v>520</v>
       </c>
       <c r="D247" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F247">
-        <v>-87.949792000000002</v>
+        <v>-89.543379999999999</v>
       </c>
       <c r="G247">
-        <v>13.55925</v>
+        <v>13.576691</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6950,22 +6985,22 @@
         <v>19</v>
       </c>
       <c r="B248">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C248">
-        <v>1403</v>
+        <v>521</v>
       </c>
       <c r="D248" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F248">
-        <v>-87.745835999999997</v>
+        <v>-89.489044000000007</v>
       </c>
       <c r="G248">
-        <v>13.785883</v>
+        <v>13.692014</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6973,22 +7008,22 @@
         <v>19</v>
       </c>
       <c r="B249">
+        <v>10</v>
+      </c>
+      <c r="C249">
+        <v>1012</v>
+      </c>
+      <c r="D249" t="s">
+        <v>187</v>
+      </c>
+      <c r="E249" t="s">
         <v>14</v>
       </c>
-      <c r="C249">
-        <v>1404</v>
-      </c>
-      <c r="D249" t="s">
-        <v>257</v>
-      </c>
-      <c r="E249" t="s">
-        <v>10</v>
-      </c>
       <c r="F249">
-        <v>-87.880917999999994</v>
+        <v>-88.839862999999994</v>
       </c>
       <c r="G249">
-        <v>13.27913</v>
+        <v>13.646882</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6996,22 +7031,22 @@
         <v>19</v>
       </c>
       <c r="B250">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C250">
-        <v>1405</v>
+        <v>213</v>
       </c>
       <c r="D250" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F250">
-        <v>-87.992841999999996</v>
+        <v>-89.493753999999996</v>
       </c>
       <c r="G250">
-        <v>13.317375999999999</v>
+        <v>14.117232</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7019,22 +7054,22 @@
         <v>19</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C251">
-        <v>1406</v>
+        <v>618</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F251">
-        <v>-87.797155000000004</v>
+        <v>-89.118837999999997</v>
       </c>
       <c r="G251">
-        <v>13.671422</v>
+        <v>13.783023</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7042,22 +7077,22 @@
         <v>19</v>
       </c>
       <c r="B252">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252">
-        <v>1407</v>
+        <v>1324</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F252">
-        <v>-88.034446000000003</v>
+        <v>-88.227382000000006</v>
       </c>
       <c r="G252">
-        <v>13.204611</v>
+        <v>13.91123</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7065,22 +7100,22 @@
         <v>19</v>
       </c>
       <c r="B253">
-        <v>14</v>
-      </c>
-      <c r="C253">
-        <v>1408</v>
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
+        <v>112</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="E253" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F253">
-        <v>-87.952781000000002</v>
+        <v>-89.774410000000003</v>
       </c>
       <c r="G253">
-        <v>13.210755000000001</v>
+        <v>13.962699000000001</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7088,22 +7123,22 @@
         <v>19</v>
       </c>
       <c r="B254">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C254">
-        <v>1409</v>
+        <v>1220</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E254" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F254">
-        <v>-87.908061000000004</v>
+        <v>-88.059788999999995</v>
       </c>
       <c r="G254">
-        <v>13.831614999999999</v>
+        <v>13.491766</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7111,22 +7146,22 @@
         <v>19</v>
       </c>
       <c r="B255">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C255">
-        <v>1410</v>
+        <v>1123</v>
       </c>
       <c r="D255" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="E255" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F255">
-        <v>-87.711618999999999</v>
+        <v>-88.482439999999997</v>
       </c>
       <c r="G255">
-        <v>13.190242</v>
+        <v>13.262859000000001</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7134,22 +7169,22 @@
         <v>19</v>
       </c>
       <c r="B256">
+        <v>10</v>
+      </c>
+      <c r="C256">
+        <v>1013</v>
+      </c>
+      <c r="D256" t="s">
+        <v>188</v>
+      </c>
+      <c r="E256" t="s">
         <v>14</v>
       </c>
-      <c r="C256">
-        <v>1411</v>
-      </c>
-      <c r="D256" t="s">
-        <v>263</v>
-      </c>
-      <c r="E256" t="s">
-        <v>10</v>
-      </c>
       <c r="F256">
-        <v>-87.843498999999994</v>
+        <v>-88.871512999999993</v>
       </c>
       <c r="G256">
-        <v>13.822255</v>
+        <v>13.660494999999999</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7157,22 +7192,22 @@
         <v>19</v>
       </c>
       <c r="B257">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C257">
-        <v>1412</v>
+        <v>908</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="E257" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F257">
-        <v>-87.759748999999999</v>
+        <v>-88.643268000000006</v>
       </c>
       <c r="G257">
-        <v>13.476943</v>
+        <v>13.967167999999999</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7180,22 +7215,22 @@
         <v>19</v>
       </c>
       <c r="B258">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C258">
-        <v>1413</v>
+        <v>1325</v>
       </c>
       <c r="D258" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F258">
-        <v>-87.797545999999997</v>
+        <v>-88.176061000000004</v>
       </c>
       <c r="G258">
-        <v>13.824313999999999</v>
+        <v>13.645421000000001</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7206,19 +7241,19 @@
         <v>14</v>
       </c>
       <c r="C259">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D259" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
       </c>
       <c r="F259">
-        <v>-87.913860999999997</v>
+        <v>-88.020249000000007</v>
       </c>
       <c r="G259">
-        <v>13.443958</v>
+        <v>13.446254</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7226,22 +7261,22 @@
         <v>19</v>
       </c>
       <c r="B260">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C260">
-        <v>1415</v>
+        <v>1326</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F260">
-        <v>-87.899052999999995</v>
+        <v>-88.132830999999996</v>
       </c>
       <c r="G260">
-        <v>13.551776</v>
+        <v>13.763154999999999</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7252,19 +7287,19 @@
         <v>14</v>
       </c>
       <c r="C261">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D261" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
       </c>
       <c r="F261">
-        <v>-87.90307</v>
+        <v>-87.997708000000003</v>
       </c>
       <c r="G261">
-        <v>13.641738</v>
+        <v>13.533868</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -7272,22 +7307,22 @@
         <v>19</v>
       </c>
       <c r="B262">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C262">
-        <v>1417</v>
+        <v>821</v>
       </c>
       <c r="D262" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="E262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F262">
-        <v>-88.020249000000007</v>
+        <v>-88.850763000000001</v>
       </c>
       <c r="G262">
-        <v>13.446254</v>
+        <v>13.431327</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -7295,22 +7330,22 @@
         <v>19</v>
       </c>
       <c r="B263">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C263">
-        <v>1418</v>
+        <v>522</v>
       </c>
       <c r="D263" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="E263" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F263">
-        <v>-87.997708000000003</v>
+        <v>-89.297370000000001</v>
       </c>
       <c r="G263">
-        <v>13.533868</v>
+        <v>13.575065</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7342,4 +7377,2126 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EDBDB-F05A-4B61-9A1B-C9309C940419}">
+  <dimension ref="A2:B264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="4">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="4">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="4">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="4">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" s="4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="4">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="4">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="4">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="4">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" s="3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="4">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="4">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="4">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="4">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" s="4">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" s="3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B163" s="4">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="3">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="4">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="4">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B187" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="4">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="4">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" s="4">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="4">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="4">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="4">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="4">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="4">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="3">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B217" s="4">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" s="4">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B223" s="4">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225" s="4">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" s="4">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B230" s="3">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231" s="4">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B233" s="4">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B235" s="4">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B239" s="4">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241" s="4">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="4">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="4">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" s="4">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" s="4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" s="4">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" s="4">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" s="4">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="4">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" s="4">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" s="4">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="4">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>